--- a/games_studied.xlsx
+++ b/games_studied.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcma\PycharmProjects\Cultural-Perspectives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10BF44-0361-49A4-BE03-0DA4039A470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE82D7-1097-4831-9880-C1B39174F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$K$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$L$511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1837">
   <si>
     <t>steamId</t>
   </si>
@@ -5116,6 +5116,444 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>Simulation, Sports, Strategy</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, RPG</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG</t>
+  </si>
+  <si>
+    <t>Adventure, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Massively Multiplayer, RPG</t>
+  </si>
+  <si>
+    <t>Action, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie</t>
+  </si>
+  <si>
+    <t>Action, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Action, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure</t>
+  </si>
+  <si>
+    <t>Adventure, RPG</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Racing, Sports</t>
+  </si>
+  <si>
+    <t>Adventure, Indie</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Indie, Massively Multiplayer, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer, Sports</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG</t>
+  </si>
+  <si>
+    <t>Indie, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Racing, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Indie, RPG, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer, RPG</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Indie, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, Racing, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie, Massively Multiplayer, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie, Massively Multiplayer, RPG</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Indie, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Massively Multiplayer</t>
+  </si>
+  <si>
+    <t>Adventure, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, Early Access</t>
+  </si>
+  <si>
+    <t>Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie</t>
+  </si>
+  <si>
+    <t>Action, Indie, RPG</t>
+  </si>
+  <si>
+    <t>Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, Massively Multiplayer, RPG, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Simulation</t>
+  </si>
+  <si>
+    <t>Casual, Indie, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Massively Multiplayer</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Casual, Simulation</t>
+  </si>
+  <si>
+    <t>Racing, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Indie, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Indie, RPG, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie, RPG</t>
+  </si>
+  <si>
+    <t>Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Sports, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Racing</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Indie, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Indie, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Casual, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Massively Multiplayer, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Indie, RPG</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Massively Multiplayer, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Racing, Simulation</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, RPG</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Casual, Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Indie, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Casual, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Indie, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Casual, Indie</t>
+  </si>
+  <si>
+    <t>Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Indie, Massively Multiplayer, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Indie</t>
+  </si>
+  <si>
+    <t>Indie, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Casual, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Casual, Indie, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Adventure, Indie, RPG, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Indie, Massively Multiplayer, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, Massively Multiplayer</t>
+  </si>
+  <si>
+    <t>Action, Casual</t>
+  </si>
+  <si>
+    <t>Adventure, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Action, RPG, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Action, Casual, RPG, Simulation, Sports, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Adventure, Casual</t>
+  </si>
+  <si>
+    <t>Racing, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Action, Indie, RPG, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Indie, Strategy</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Massively Multiplayer, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>RPG, Simulation, Strategy</t>
+  </si>
+  <si>
+    <t>Casual, Indie, Simulation, Strategy, Early Access</t>
+  </si>
+  <si>
+    <t>Casual, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Strategy</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Action, Casual, Sports</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG, Simulation, Early Access</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer, Racing, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer, Racing, Simulation</t>
+  </si>
+  <si>
+    <t>Indie, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Indie, RPG, Simulation, Sports</t>
+  </si>
+  <si>
+    <t>Indie, RPG, Simulation</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Casual, Indie, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Action, Casual, RPG, Strategy</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer</t>
+  </si>
+  <si>
+    <t>Adventure, Casual, Indie, RPG</t>
+  </si>
+  <si>
+    <t>Action, Massively Multiplayer, Strategy</t>
   </si>
 </sst>
 </file>
@@ -5163,7 +5601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5174,6 +5612,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12369,18 +12808,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K511"/>
+  <dimension ref="A1:L511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.796875"/>
+    <col min="12" max="12" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12414,8 +12854,11 @@
       <c r="K1" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2252570</v>
       </c>
@@ -12451,8 +12894,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000950</v>
       </c>
@@ -12488,8 +12934,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1454400</v>
       </c>
@@ -12525,8 +12974,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1245620</v>
       </c>
@@ -12562,8 +13014,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2072450</v>
       </c>
@@ -12599,8 +13054,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2161700</v>
       </c>
@@ -12636,8 +13094,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2195250</v>
       </c>
@@ -12673,8 +13134,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2344520</v>
       </c>
@@ -12710,8 +13174,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2340650</v>
       </c>
@@ -12747,8 +13214,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1985810</v>
       </c>
@@ -12784,8 +13254,11 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1919590</v>
       </c>
@@ -12821,8 +13294,11 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1446780</v>
       </c>
@@ -12858,8 +13334,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1063730</v>
       </c>
@@ -12895,8 +13374,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1789480</v>
       </c>
@@ -12932,8 +13414,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1566690</v>
       </c>
@@ -12969,8 +13454,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>488860</v>
       </c>
@@ -13006,8 +13494,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1325200</v>
       </c>
@@ -13043,8 +13534,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1142710</v>
       </c>
@@ -13080,8 +13574,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>784080</v>
       </c>
@@ -13117,8 +13614,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2420110</v>
       </c>
@@ -13154,8 +13654,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1149460</v>
       </c>
@@ -13191,8 +13694,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1468810</v>
       </c>
@@ -13228,8 +13734,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>680420</v>
       </c>
@@ -13265,8 +13774,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1401590</v>
       </c>
@@ -13302,8 +13814,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="4" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>875210</v>
       </c>
@@ -13339,8 +13854,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="4" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1716740</v>
       </c>
@@ -13376,8 +13894,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1248130</v>
       </c>
@@ -13413,8 +13934,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1938010</v>
       </c>
@@ -13450,8 +13974,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1178830</v>
       </c>
@@ -13487,8 +14014,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1687950</v>
       </c>
@@ -13524,8 +14054,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1277400</v>
       </c>
@@ -13561,8 +14094,11 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>892970</v>
       </c>
@@ -13598,8 +14134,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1105670</v>
       </c>
@@ -13635,8 +14174,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>400750</v>
       </c>
@@ -13672,8 +14214,11 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="4" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1501750</v>
       </c>
@@ -13709,8 +14254,11 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1361210</v>
       </c>
@@ -13746,8 +14294,11 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2215430</v>
       </c>
@@ -13783,8 +14334,11 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2208920</v>
       </c>
@@ -13820,8 +14374,11 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2322010</v>
       </c>
@@ -13857,8 +14414,11 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2054970</v>
       </c>
@@ -13894,8 +14454,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2108330</v>
       </c>
@@ -13931,8 +14494,11 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="4" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1350650</v>
       </c>
@@ -13968,8 +14534,11 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1290000</v>
       </c>
@@ -14005,8 +14574,11 @@
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2027330</v>
       </c>
@@ -14042,8 +14614,11 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="4" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1288310</v>
       </c>
@@ -14079,8 +14654,11 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>740130</v>
       </c>
@@ -14116,8 +14694,11 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>881020</v>
       </c>
@@ -14153,8 +14734,11 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1623730</v>
       </c>
@@ -14190,8 +14774,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2285150</v>
       </c>
@@ -14227,8 +14814,11 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="4" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1774580</v>
       </c>
@@ -14264,8 +14854,11 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1462040</v>
       </c>
@@ -14301,8 +14894,11 @@
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1328670</v>
       </c>
@@ -14338,8 +14934,11 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1424330</v>
       </c>
@@ -14375,8 +14974,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>553850</v>
       </c>
@@ -14412,8 +15014,11 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2290180</v>
       </c>
@@ -14449,8 +15054,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="4" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1296830</v>
       </c>
@@ -14486,8 +15094,11 @@
       <c r="K57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1850570</v>
       </c>
@@ -14523,8 +15134,11 @@
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>990080</v>
       </c>
@@ -14560,8 +15174,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>534380</v>
       </c>
@@ -14597,8 +15214,11 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2358720</v>
       </c>
@@ -14634,8 +15254,11 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2669320</v>
       </c>
@@ -14671,8 +15294,11 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>975370</v>
       </c>
@@ -14708,8 +15334,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="4" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1593500</v>
       </c>
@@ -14745,8 +15374,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1551360</v>
       </c>
@@ -14782,8 +15414,11 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="4" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>780310</v>
       </c>
@@ -14819,8 +15454,11 @@
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="4" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1928980</v>
       </c>
@@ -14856,8 +15494,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2142790</v>
       </c>
@@ -14893,8 +15534,11 @@
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="4" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>949230</v>
       </c>
@@ -14930,8 +15574,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>700600</v>
       </c>
@@ -14967,8 +15614,11 @@
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1817070</v>
       </c>
@@ -15004,8 +15654,11 @@
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1888160</v>
       </c>
@@ -15041,8 +15694,11 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1371580</v>
       </c>
@@ -15078,8 +15734,11 @@
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="4" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1113560</v>
       </c>
@@ -15115,8 +15774,11 @@
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1466860</v>
       </c>
@@ -15152,8 +15814,11 @@
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>529340</v>
       </c>
@@ -15189,8 +15854,11 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1448440</v>
       </c>
@@ -15226,8 +15894,11 @@
       <c r="K77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2369390</v>
       </c>
@@ -15263,8 +15934,11 @@
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>315210</v>
       </c>
@@ -15300,8 +15974,11 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1527950</v>
       </c>
@@ -15337,8 +16014,11 @@
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1364780</v>
       </c>
@@ -15374,8 +16054,11 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1062090</v>
       </c>
@@ -15411,8 +16094,11 @@
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="4" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1520370</v>
       </c>
@@ -15448,8 +16134,11 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="4" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1686940</v>
       </c>
@@ -15485,8 +16174,11 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2399830</v>
       </c>
@@ -15522,8 +16214,11 @@
       <c r="K85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="4" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1062520</v>
       </c>
@@ -15559,8 +16254,11 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2186680</v>
       </c>
@@ -15596,8 +16294,11 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="4" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1627720</v>
       </c>
@@ -15633,8 +16334,11 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1259420</v>
       </c>
@@ -15670,8 +16374,11 @@
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>669330</v>
       </c>
@@ -15707,8 +16414,11 @@
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1170950</v>
       </c>
@@ -15744,8 +16454,11 @@
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="4" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1382330</v>
       </c>
@@ -15781,8 +16494,11 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1284190</v>
       </c>
@@ -15818,8 +16534,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>954850</v>
       </c>
@@ -15855,8 +16574,11 @@
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="4" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1604030</v>
       </c>
@@ -15892,8 +16614,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1336490</v>
       </c>
@@ -15929,8 +16654,11 @@
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1888930</v>
       </c>
@@ -15966,8 +16694,11 @@
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2378900</v>
       </c>
@@ -16003,8 +16734,11 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1987080</v>
       </c>
@@ -16040,8 +16774,11 @@
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="4" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1282100</v>
       </c>
@@ -16077,8 +16814,11 @@
       <c r="K100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>799600</v>
       </c>
@@ -16114,8 +16854,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="4" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1948980</v>
       </c>
@@ -16151,8 +16894,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1809540</v>
       </c>
@@ -16188,8 +16934,11 @@
       <c r="K103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2066020</v>
       </c>
@@ -16225,8 +16974,11 @@
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" s="4" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1971870</v>
       </c>
@@ -16262,8 +17014,11 @@
       <c r="K105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1778820</v>
       </c>
@@ -16299,8 +17054,11 @@
       <c r="K106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1210320</v>
       </c>
@@ -16336,8 +17094,11 @@
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107" s="4" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1088850</v>
       </c>
@@ -16373,8 +17134,11 @@
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1876890</v>
       </c>
@@ -16410,8 +17174,11 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1533420</v>
       </c>
@@ -16447,8 +17214,11 @@
       <c r="K110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2646460</v>
       </c>
@@ -16484,8 +17254,11 @@
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111" s="4" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1465360</v>
       </c>
@@ -16521,8 +17294,11 @@
       <c r="K112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112" s="4" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1517290</v>
       </c>
@@ -16558,8 +17334,11 @@
       <c r="K113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1385380</v>
       </c>
@@ -16595,8 +17374,11 @@
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1785150</v>
       </c>
@@ -16632,8 +17414,11 @@
       <c r="K115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1244460</v>
       </c>
@@ -16669,8 +17454,11 @@
       <c r="K116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1669000</v>
       </c>
@@ -16706,8 +17494,11 @@
       <c r="K117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2109460</v>
       </c>
@@ -16743,8 +17534,11 @@
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118" s="4" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>885970</v>
       </c>
@@ -16780,8 +17574,11 @@
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1286680</v>
       </c>
@@ -16817,8 +17614,11 @@
       <c r="K120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1659420</v>
       </c>
@@ -16854,8 +17654,11 @@
       <c r="K121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1171690</v>
       </c>
@@ -16891,8 +17694,11 @@
       <c r="K122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1504570</v>
       </c>
@@ -16928,8 +17734,11 @@
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123" s="4" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1824220</v>
       </c>
@@ -16965,8 +17774,11 @@
       <c r="K124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124" s="4" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>936790</v>
       </c>
@@ -17002,8 +17814,11 @@
       <c r="K125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1859910</v>
       </c>
@@ -17039,8 +17854,11 @@
       <c r="K126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1868140</v>
       </c>
@@ -17076,8 +17894,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127" s="4" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1273400</v>
       </c>
@@ -17113,8 +17934,11 @@
       <c r="K128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128" s="4" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1190000</v>
       </c>
@@ -17150,8 +17974,11 @@
       <c r="K129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129" s="4" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>607080</v>
       </c>
@@ -17187,8 +18014,11 @@
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2239550</v>
       </c>
@@ -17224,8 +18054,11 @@
       <c r="K131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>924970</v>
       </c>
@@ -17261,8 +18094,11 @@
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1817190</v>
       </c>
@@ -17298,8 +18134,11 @@
       <c r="K133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2221490</v>
       </c>
@@ -17335,8 +18174,11 @@
       <c r="K134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2181930</v>
       </c>
@@ -17372,8 +18214,11 @@
       <c r="K135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1145350</v>
       </c>
@@ -17409,8 +18254,11 @@
       <c r="K136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136" s="4" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2379780</v>
       </c>
@@ -17446,8 +18294,11 @@
       <c r="K137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2114740</v>
       </c>
@@ -17483,8 +18334,11 @@
       <c r="K138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1124300</v>
       </c>
@@ -17520,8 +18374,11 @@
       <c r="K139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1029780</v>
       </c>
@@ -17557,8 +18414,11 @@
       <c r="K140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140" s="4" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2338770</v>
       </c>
@@ -17594,8 +18454,11 @@
       <c r="K141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L141" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1794680</v>
       </c>
@@ -17631,8 +18494,11 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142" s="4" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1372280</v>
       </c>
@@ -17668,8 +18534,11 @@
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L143" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>553420</v>
       </c>
@@ -17705,8 +18574,11 @@
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>930210</v>
       </c>
@@ -17742,8 +18614,11 @@
       <c r="K145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L145" s="4" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1272080</v>
       </c>
@@ -17779,8 +18654,11 @@
       <c r="K146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L146" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1761390</v>
       </c>
@@ -17816,8 +18694,11 @@
       <c r="K147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L147" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1611910</v>
       </c>
@@ -17853,8 +18734,11 @@
       <c r="K148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L148" s="4" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2075070</v>
       </c>
@@ -17890,8 +18774,11 @@
       <c r="K149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L149" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2183900</v>
       </c>
@@ -17927,8 +18814,11 @@
       <c r="K150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L150" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1206560</v>
       </c>
@@ -17964,8 +18854,11 @@
       <c r="K151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L151" s="4" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2427700</v>
       </c>
@@ -18001,8 +18894,11 @@
       <c r="K152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L152" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1490890</v>
       </c>
@@ -18038,8 +18934,11 @@
       <c r="K153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L153" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>427410</v>
       </c>
@@ -18075,8 +18974,11 @@
       <c r="K154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L154" s="4" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1934680</v>
       </c>
@@ -18112,8 +19014,11 @@
       <c r="K155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1496790</v>
       </c>
@@ -18149,8 +19054,11 @@
       <c r="K156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L156" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1353230</v>
       </c>
@@ -18186,8 +19094,11 @@
       <c r="K157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L157" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1659040</v>
       </c>
@@ -18223,8 +19134,11 @@
       <c r="K158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L158" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1583320</v>
       </c>
@@ -18260,8 +19174,11 @@
       <c r="K159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L159" s="4" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1562700</v>
       </c>
@@ -18297,8 +19214,11 @@
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L160" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1621690</v>
       </c>
@@ -18334,8 +19254,11 @@
       <c r="K161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L161" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>775500</v>
       </c>
@@ -18371,8 +19294,11 @@
       <c r="K162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L162" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1150440</v>
       </c>
@@ -18408,8 +19334,11 @@
       <c r="K163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L163" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1556790</v>
       </c>
@@ -18445,8 +19374,11 @@
       <c r="K164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L164" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1677280</v>
       </c>
@@ -18482,8 +19414,11 @@
       <c r="K165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L165" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>835960</v>
       </c>
@@ -18519,8 +19454,11 @@
       <c r="K166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L166" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1895880</v>
       </c>
@@ -18556,8 +19494,11 @@
       <c r="K167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L167" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1790600</v>
       </c>
@@ -18593,8 +19534,11 @@
       <c r="K168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L168" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1846380</v>
       </c>
@@ -18630,8 +19574,11 @@
       <c r="K169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L169" s="4" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1040200</v>
       </c>
@@ -18667,8 +19614,11 @@
       <c r="K170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L170" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>774801</v>
       </c>
@@ -18704,8 +19654,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L171" s="4" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1384160</v>
       </c>
@@ -18741,8 +19694,11 @@
       <c r="K172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L172" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1850740</v>
       </c>
@@ -18778,8 +19734,11 @@
       <c r="K173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L173" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1433140</v>
       </c>
@@ -18815,8 +19774,11 @@
       <c r="K174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L174" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1426210</v>
       </c>
@@ -18852,8 +19814,11 @@
       <c r="K175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L175" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1942280</v>
       </c>
@@ -18889,8 +19854,11 @@
       <c r="K176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L176" s="4" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1611600</v>
       </c>
@@ -18926,8 +19894,11 @@
       <c r="K177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L177" s="4" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>997010</v>
       </c>
@@ -18963,8 +19934,11 @@
       <c r="K178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L178" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1326470</v>
       </c>
@@ -19000,8 +19974,11 @@
       <c r="K179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L179" s="4" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1971650</v>
       </c>
@@ -19037,8 +20014,11 @@
       <c r="K180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L180" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1296610</v>
       </c>
@@ -19074,8 +20054,11 @@
       <c r="K181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L181" s="4" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1887840</v>
       </c>
@@ -19111,8 +20094,11 @@
       <c r="K182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L182" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1184370</v>
       </c>
@@ -19148,8 +20134,11 @@
       <c r="K183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L183" s="4" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2479810</v>
       </c>
@@ -19185,8 +20174,11 @@
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L184" s="4" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>747660</v>
       </c>
@@ -19222,8 +20214,11 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L185" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1782120</v>
       </c>
@@ -19259,8 +20254,11 @@
       <c r="K186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L186" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1203620</v>
       </c>
@@ -19296,8 +20294,11 @@
       <c r="K187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L187" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1543030</v>
       </c>
@@ -19333,8 +20334,11 @@
       <c r="K188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1544020</v>
       </c>
@@ -19370,8 +20374,11 @@
       <c r="K189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L189" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1475810</v>
       </c>
@@ -19407,8 +20414,11 @@
       <c r="K190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L190" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1128920</v>
       </c>
@@ -19444,8 +20454,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L191" s="4" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1084600</v>
       </c>
@@ -19481,8 +20494,11 @@
       <c r="K192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L192" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1252330</v>
       </c>
@@ -19518,8 +20534,11 @@
       <c r="K193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L193" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1432860</v>
       </c>
@@ -19555,8 +20574,11 @@
       <c r="K194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L194" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1681430</v>
       </c>
@@ -19592,8 +20614,11 @@
       <c r="K195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L195" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1293830</v>
       </c>
@@ -19629,8 +20654,11 @@
       <c r="K196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L196" s="4" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>368260</v>
       </c>
@@ -19666,8 +20694,11 @@
       <c r="K197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L197" s="4" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1276790</v>
       </c>
@@ -19703,8 +20734,11 @@
       <c r="K198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L198" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2231450</v>
       </c>
@@ -19740,8 +20774,11 @@
       <c r="K199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L199" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1158160</v>
       </c>
@@ -19777,8 +20814,11 @@
       <c r="K200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L200" s="4" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1092790</v>
       </c>
@@ -19814,8 +20854,11 @@
       <c r="K201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L201" s="4" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1182900</v>
       </c>
@@ -19851,8 +20894,11 @@
       <c r="K202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L202" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>920210</v>
       </c>
@@ -19888,8 +20934,11 @@
       <c r="K203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L203" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1421250</v>
       </c>
@@ -19925,8 +20974,11 @@
       <c r="K204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L204" s="4" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1404850</v>
       </c>
@@ -19962,8 +21014,11 @@
       <c r="K205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L205" s="4" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1282730</v>
       </c>
@@ -19999,8 +21054,11 @@
       <c r="K206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L206" s="4" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2248760</v>
       </c>
@@ -20036,8 +21094,11 @@
       <c r="K207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L207" s="4" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>671860</v>
       </c>
@@ -20073,8 +21134,11 @@
       <c r="K208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L208" s="4" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1237320</v>
       </c>
@@ -20110,8 +21174,11 @@
       <c r="K209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L209" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2218750</v>
       </c>
@@ -20147,8 +21214,11 @@
       <c r="K210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L210" s="4" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1313140</v>
       </c>
@@ -20184,8 +21254,11 @@
       <c r="K211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L211" s="4" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1331550</v>
       </c>
@@ -20221,8 +21294,11 @@
       <c r="K212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L212" s="4" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1966720</v>
       </c>
@@ -20258,8 +21334,11 @@
       <c r="K213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L213" s="4" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1599600</v>
       </c>
@@ -20295,8 +21374,11 @@
       <c r="K214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L214" s="4" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2080690</v>
       </c>
@@ -20332,8 +21414,11 @@
       <c r="K215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L215" s="4" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>668580</v>
       </c>
@@ -20369,8 +21454,11 @@
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L216" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1341290</v>
       </c>
@@ -20406,8 +21494,11 @@
       <c r="K217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L217" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>986130</v>
       </c>
@@ -20443,8 +21534,11 @@
       <c r="K218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L218" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2321470</v>
       </c>
@@ -20480,8 +21574,11 @@
       <c r="K219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L219" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1304930</v>
       </c>
@@ -20517,8 +21614,11 @@
       <c r="K220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L220" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1458140</v>
       </c>
@@ -20554,8 +21654,11 @@
       <c r="K221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L221" s="4" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1522820</v>
       </c>
@@ -20591,8 +21694,11 @@
       <c r="K222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L222" s="4" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1676840</v>
       </c>
@@ -20628,8 +21734,11 @@
       <c r="K223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L223" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2593370</v>
       </c>
@@ -20665,8 +21774,11 @@
       <c r="K224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L224" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>633230</v>
       </c>
@@ -20702,8 +21814,11 @@
       <c r="K225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L225" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1044720</v>
       </c>
@@ -20739,8 +21854,11 @@
       <c r="K226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L226" s="4" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>629820</v>
       </c>
@@ -20776,8 +21894,11 @@
       <c r="K227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L227" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2163330</v>
       </c>
@@ -20813,8 +21934,11 @@
       <c r="K228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L228" s="4" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>858820</v>
       </c>
@@ -20850,8 +21974,11 @@
       <c r="K229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L229" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1144200</v>
       </c>
@@ -20887,8 +22014,11 @@
       <c r="K230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L230" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1262350</v>
       </c>
@@ -20924,8 +22054,11 @@
       <c r="K231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L231" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1940340</v>
       </c>
@@ -20961,8 +22094,11 @@
       <c r="K232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L232" s="4" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1931770</v>
       </c>
@@ -20998,8 +22134,11 @@
       <c r="K233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L233" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1669980</v>
       </c>
@@ -21035,8 +22174,11 @@
       <c r="K234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L234" s="4" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1563180</v>
       </c>
@@ -21072,8 +22214,11 @@
       <c r="K235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L235" s="4" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1562430</v>
       </c>
@@ -21109,8 +22254,11 @@
       <c r="K236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L236" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2334730</v>
       </c>
@@ -21146,8 +22294,11 @@
       <c r="K237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L237" s="4" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1559390</v>
       </c>
@@ -21183,8 +22334,11 @@
       <c r="K238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L238" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1601580</v>
       </c>
@@ -21220,8 +22374,11 @@
       <c r="K239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L239" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1113120</v>
       </c>
@@ -21257,8 +22414,11 @@
       <c r="K240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L240" s="4" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2670630</v>
       </c>
@@ -21294,8 +22454,11 @@
       <c r="K241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L241" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1202130</v>
       </c>
@@ -21331,8 +22494,11 @@
       <c r="K242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L242" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2124490</v>
       </c>
@@ -21368,8 +22534,11 @@
       <c r="K243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L243" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1525700</v>
       </c>
@@ -21405,8 +22574,11 @@
       <c r="K244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L244" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>894020</v>
       </c>
@@ -21442,8 +22614,11 @@
       <c r="K245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L245" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1584090</v>
       </c>
@@ -21479,8 +22654,11 @@
       <c r="K246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L246" s="4" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1363080</v>
       </c>
@@ -21516,8 +22694,11 @@
       <c r="K247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L247" s="4" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2050650</v>
       </c>
@@ -21553,8 +22734,11 @@
       <c r="K248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>756800</v>
       </c>
@@ -21590,8 +22774,11 @@
       <c r="K249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L249" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1388770</v>
       </c>
@@ -21627,8 +22814,11 @@
       <c r="K250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L250" s="4" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1029690</v>
       </c>
@@ -21664,8 +22854,11 @@
       <c r="K251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L251" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1455840</v>
       </c>
@@ -21701,8 +22894,11 @@
       <c r="K252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L252" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1954200</v>
       </c>
@@ -21738,8 +22934,11 @@
       <c r="K253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L253" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>979690</v>
       </c>
@@ -21775,8 +22974,11 @@
       <c r="K254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L254" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1369630</v>
       </c>
@@ -21812,8 +23014,11 @@
       <c r="K255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L255" s="4" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1063660</v>
       </c>
@@ -21849,8 +23054,11 @@
       <c r="K256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L256" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1740720</v>
       </c>
@@ -21886,8 +23094,11 @@
       <c r="K257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L257" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1371980</v>
       </c>
@@ -21923,8 +23134,11 @@
       <c r="K258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L258" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1127500</v>
       </c>
@@ -21960,8 +23174,11 @@
       <c r="K259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L259" s="4" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2828860</v>
       </c>
@@ -21997,8 +23214,11 @@
       <c r="K260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L260" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1337520</v>
       </c>
@@ -22034,8 +23254,11 @@
       <c r="K261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L261" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1592190</v>
       </c>
@@ -22071,8 +23294,11 @@
       <c r="K262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L262" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1034140</v>
       </c>
@@ -22108,8 +23334,11 @@
       <c r="K263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L263" s="4" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1674170</v>
       </c>
@@ -22145,8 +23374,11 @@
       <c r="K264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L264" s="4" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1672970</v>
       </c>
@@ -22182,8 +23414,11 @@
       <c r="K265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L265" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1549970</v>
       </c>
@@ -22219,8 +23454,11 @@
       <c r="K266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L266" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>699130</v>
       </c>
@@ -22256,8 +23494,11 @@
       <c r="K267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L267" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>860510</v>
       </c>
@@ -22293,8 +23534,11 @@
       <c r="K268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L268" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1583230</v>
       </c>
@@ -22330,8 +23574,11 @@
       <c r="K269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L269" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1149620</v>
       </c>
@@ -22367,8 +23614,11 @@
       <c r="K270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L270" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2231380</v>
       </c>
@@ -22404,8 +23654,11 @@
       <c r="K271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L271" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1548850</v>
       </c>
@@ -22441,8 +23694,11 @@
       <c r="K272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L272" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2212330</v>
       </c>
@@ -22478,8 +23734,11 @@
       <c r="K273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L273" s="4" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1718570</v>
       </c>
@@ -22515,8 +23774,11 @@
       <c r="K274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L274" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2071280</v>
       </c>
@@ -22552,8 +23814,11 @@
       <c r="K275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L275" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1557740</v>
       </c>
@@ -22589,8 +23854,11 @@
       <c r="K276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L276" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1966900</v>
       </c>
@@ -22626,8 +23894,11 @@
       <c r="K277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L277" s="4" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1874880</v>
       </c>
@@ -22663,8 +23934,11 @@
       <c r="K278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L278" s="4" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1929610</v>
       </c>
@@ -22700,8 +23974,11 @@
       <c r="K279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L279" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1657630</v>
       </c>
@@ -22737,8 +24014,11 @@
       <c r="K280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L280" s="4" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1465460</v>
       </c>
@@ -22774,8 +24054,11 @@
       <c r="K281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L281" s="4" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1693980</v>
       </c>
@@ -22811,8 +24094,11 @@
       <c r="K282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L282" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1268750</v>
       </c>
@@ -22848,8 +24134,11 @@
       <c r="K283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L283" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1260320</v>
       </c>
@@ -22885,8 +24174,11 @@
       <c r="K284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L284" s="4" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1366540</v>
       </c>
@@ -22922,8 +24214,11 @@
       <c r="K285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L285" s="4" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1435790</v>
       </c>
@@ -22959,8 +24254,11 @@
       <c r="K286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L286" s="4" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1119730</v>
       </c>
@@ -22996,8 +24294,11 @@
       <c r="K287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L287" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1466640</v>
       </c>
@@ -23033,8 +24334,11 @@
       <c r="K288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L288" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1577120</v>
       </c>
@@ -23070,8 +24374,11 @@
       <c r="K289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L289" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>867210</v>
       </c>
@@ -23107,8 +24414,11 @@
       <c r="K290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L290" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1746030</v>
       </c>
@@ -23144,8 +24454,11 @@
       <c r="K291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L291" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1388880</v>
       </c>
@@ -23181,8 +24494,11 @@
       <c r="K292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L292" s="4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>977880</v>
       </c>
@@ -23218,8 +24534,11 @@
       <c r="K293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L293" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1084160</v>
       </c>
@@ -23255,8 +24574,11 @@
       <c r="K294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L294" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>597820</v>
       </c>
@@ -23292,8 +24614,11 @@
       <c r="K295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L295" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1637320</v>
       </c>
@@ -23329,8 +24654,11 @@
       <c r="K296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L296" s="4" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1196590</v>
       </c>
@@ -23366,8 +24694,11 @@
       <c r="K297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L297" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1488200</v>
       </c>
@@ -23403,8 +24734,11 @@
       <c r="K298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L298" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1061910</v>
       </c>
@@ -23440,8 +24774,11 @@
       <c r="K299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L299" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>3070070</v>
       </c>
@@ -23477,8 +24814,11 @@
       <c r="K300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L300" s="4" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>872670</v>
       </c>
@@ -23514,8 +24854,11 @@
       <c r="K301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L301" s="4" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1361510</v>
       </c>
@@ -23551,8 +24894,11 @@
       <c r="K302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L302" s="4" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1332010</v>
       </c>
@@ -23588,8 +24934,11 @@
       <c r="K303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L303" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>774181</v>
       </c>
@@ -23625,8 +24974,11 @@
       <c r="K304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L304" s="4" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1574580</v>
       </c>
@@ -23662,8 +25014,11 @@
       <c r="K305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L305" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1283410</v>
       </c>
@@ -23699,8 +25054,11 @@
       <c r="K306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L306" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1880330</v>
       </c>
@@ -23736,8 +25094,11 @@
       <c r="K307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L307" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1948280</v>
       </c>
@@ -23773,8 +25134,11 @@
       <c r="K308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L308" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>813230</v>
       </c>
@@ -23810,8 +25174,11 @@
       <c r="K309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L309" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1922560</v>
       </c>
@@ -23847,8 +25214,11 @@
       <c r="K310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L310" s="4" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1703340</v>
       </c>
@@ -23884,8 +25254,11 @@
       <c r="K311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L311" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1989270</v>
       </c>
@@ -23921,8 +25294,11 @@
       <c r="K312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L312" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2365810</v>
       </c>
@@ -23958,8 +25334,11 @@
       <c r="K313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L313" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2291760</v>
       </c>
@@ -23995,8 +25374,11 @@
       <c r="K314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L314" s="4" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1715130</v>
       </c>
@@ -24032,8 +25414,11 @@
       <c r="K315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L315" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1338770</v>
       </c>
@@ -24069,8 +25454,11 @@
       <c r="K316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L316" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>698670</v>
       </c>
@@ -24106,8 +25494,11 @@
       <c r="K317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L317" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1629520</v>
       </c>
@@ -24143,8 +25534,11 @@
       <c r="K318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L318" s="4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2567870</v>
       </c>
@@ -24180,8 +25574,11 @@
       <c r="K319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L319" s="4" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1451190</v>
       </c>
@@ -24217,8 +25614,11 @@
       <c r="K320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L320" s="4" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1605220</v>
       </c>
@@ -24254,8 +25654,11 @@
       <c r="K321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L321" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2138710</v>
       </c>
@@ -24291,8 +25694,11 @@
       <c r="K322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L322" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2005010</v>
       </c>
@@ -24328,8 +25734,11 @@
       <c r="K323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L323" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1244090</v>
       </c>
@@ -24365,8 +25774,11 @@
       <c r="K324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L324" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1274570</v>
       </c>
@@ -24402,8 +25814,11 @@
       <c r="K325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L325" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2322560</v>
       </c>
@@ -24439,8 +25854,11 @@
       <c r="K326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L326" s="4" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2239150</v>
       </c>
@@ -24476,8 +25894,11 @@
       <c r="K327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L327" s="4" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2273430</v>
       </c>
@@ -24513,8 +25934,11 @@
       <c r="K328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L328" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1817230</v>
       </c>
@@ -24550,8 +25974,11 @@
       <c r="K329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L329" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1515210</v>
       </c>
@@ -24587,8 +26014,11 @@
       <c r="K330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L330" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2881650</v>
       </c>
@@ -24624,8 +26054,11 @@
       <c r="K331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L331" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1451940</v>
       </c>
@@ -24661,8 +26094,11 @@
       <c r="K332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L332" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1943950</v>
       </c>
@@ -24698,8 +26134,11 @@
       <c r="K333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L333" s="4" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>990630</v>
       </c>
@@ -24735,8 +26174,11 @@
       <c r="K334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L334" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1509960</v>
       </c>
@@ -24772,8 +26214,11 @@
       <c r="K335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L335" s="4" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1832640</v>
       </c>
@@ -24809,8 +26254,11 @@
       <c r="K336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L336" s="4" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1766740</v>
       </c>
@@ -24846,8 +26294,11 @@
       <c r="K337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L337" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2406770</v>
       </c>
@@ -24883,8 +26334,11 @@
       <c r="K338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L338" s="4" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1135690</v>
       </c>
@@ -24920,8 +26374,11 @@
       <c r="K339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L339" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2296990</v>
       </c>
@@ -24957,8 +26414,11 @@
       <c r="K340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L340" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1059990</v>
       </c>
@@ -24994,8 +26454,11 @@
       <c r="K341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L341" s="4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2835570</v>
       </c>
@@ -25031,8 +26494,11 @@
       <c r="K342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L342" s="4" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2532550</v>
       </c>
@@ -25068,8 +26534,11 @@
       <c r="K343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L343" s="4" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1533390</v>
       </c>
@@ -25105,8 +26574,11 @@
       <c r="K344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L344" s="4" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2519060</v>
       </c>
@@ -25142,8 +26614,11 @@
       <c r="K345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L345" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2140330</v>
       </c>
@@ -25180,8 +26655,11 @@
         <f>VLOOKUP(A346,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L346" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1190970</v>
       </c>
@@ -25218,8 +26696,11 @@
         <f>VLOOKUP(A347,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L347" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1962660</v>
       </c>
@@ -25256,8 +26737,11 @@
         <f>VLOOKUP(A348,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L348" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1942660</v>
       </c>
@@ -25294,8 +26778,11 @@
         <f>VLOOKUP(A349,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L349" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>934700</v>
       </c>
@@ -25332,8 +26819,11 @@
         <f>VLOOKUP(A350,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L350" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1324130</v>
       </c>
@@ -25369,8 +26859,11 @@
       <c r="K351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L351" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2440510</v>
       </c>
@@ -25407,8 +26900,11 @@
         <f>VLOOKUP(A352,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L352" s="4" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1594320</v>
       </c>
@@ -25444,8 +26940,11 @@
       <c r="K353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L353" s="4" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1288320</v>
       </c>
@@ -25482,8 +26981,11 @@
         <f>VLOOKUP(A354,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L354" s="4" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1065310</v>
       </c>
@@ -25520,8 +27022,11 @@
         <f>VLOOKUP(A355,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L355" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1069660</v>
       </c>
@@ -25557,8 +27062,11 @@
       <c r="K356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L356" s="4" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1608070</v>
       </c>
@@ -25595,8 +27103,11 @@
         <f>VLOOKUP(A357,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L357" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2375550</v>
       </c>
@@ -25633,8 +27144,11 @@
         <f>VLOOKUP(A358,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L358" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1875830</v>
       </c>
@@ -25671,8 +27185,11 @@
         <f>VLOOKUP(A359,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L359" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1812450</v>
       </c>
@@ -25708,8 +27225,11 @@
       <c r="K360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L360" s="4" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2291060</v>
       </c>
@@ -25746,8 +27266,11 @@
         <f>VLOOKUP(A361,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L361" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>601050</v>
       </c>
@@ -25784,8 +27307,11 @@
         <f>VLOOKUP(A362,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L362" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1129540</v>
       </c>
@@ -25821,8 +27347,11 @@
       <c r="K363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L363" s="4" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1547000</v>
       </c>
@@ -25859,8 +27388,11 @@
         <f>VLOOKUP(A364,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L364" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1335790</v>
       </c>
@@ -25897,8 +27429,11 @@
         <f>VLOOKUP(A365,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L365" s="4" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>768200</v>
       </c>
@@ -25934,8 +27469,11 @@
       <c r="K366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L366" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>694280</v>
       </c>
@@ -25972,8 +27510,11 @@
         <f>VLOOKUP(A367,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L367" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1849250</v>
       </c>
@@ -26010,8 +27551,11 @@
         <f>VLOOKUP(A368,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L368" s="4" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1498570</v>
       </c>
@@ -26048,8 +27592,11 @@
         <f>VLOOKUP(A369,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L369" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1271700</v>
       </c>
@@ -26086,8 +27633,11 @@
         <f>VLOOKUP(A370,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L370" s="4" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>482400</v>
       </c>
@@ -26124,8 +27674,11 @@
         <f>VLOOKUP(A371,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L371" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1468720</v>
       </c>
@@ -26161,8 +27714,11 @@
       <c r="K372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L372" s="4" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1295920</v>
       </c>
@@ -26199,8 +27755,11 @@
         <f>VLOOKUP(A373,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L373" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2058190</v>
       </c>
@@ -26237,8 +27796,11 @@
         <f>VLOOKUP(A374,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L374" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1003590</v>
       </c>
@@ -26275,8 +27837,11 @@
         <f>VLOOKUP(A375,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L375" s="4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>973230</v>
       </c>
@@ -26312,8 +27877,11 @@
       <c r="K376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L376" s="4" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1737100</v>
       </c>
@@ -26349,8 +27917,11 @@
       <c r="K377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L377" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1372110</v>
       </c>
@@ -26387,8 +27958,11 @@
         <f>VLOOKUP(A378,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L378" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2446550</v>
       </c>
@@ -26425,8 +27999,11 @@
         <f>VLOOKUP(A379,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L379" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2058180</v>
       </c>
@@ -26463,8 +28040,11 @@
         <f>VLOOKUP(A380,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L380" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1176470</v>
       </c>
@@ -26500,8 +28080,11 @@
       <c r="K381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L381" s="4" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2495450</v>
       </c>
@@ -26538,8 +28121,11 @@
         <f>VLOOKUP(A382,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L382" s="4" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1840080</v>
       </c>
@@ -26576,8 +28162,11 @@
         <f>VLOOKUP(A383,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L383" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1272320</v>
       </c>
@@ -26613,8 +28202,11 @@
       <c r="K384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L384" s="4" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1811990</v>
       </c>
@@ -26651,8 +28243,11 @@
         <f>VLOOKUP(A385,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L385" s="4" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1593030</v>
       </c>
@@ -26689,8 +28284,11 @@
         <f>VLOOKUP(A386,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L386" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1509510</v>
       </c>
@@ -26726,8 +28324,11 @@
       <c r="K387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L387" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1970580</v>
       </c>
@@ -26763,8 +28364,11 @@
       <c r="K388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L388" s="4" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1222370</v>
       </c>
@@ -26801,8 +28405,11 @@
         <f>VLOOKUP(A389,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L389" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1635450</v>
       </c>
@@ -26838,8 +28445,11 @@
       <c r="K390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L390" s="4" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1624540</v>
       </c>
@@ -26876,8 +28486,11 @@
         <f>VLOOKUP(A391,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L391" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1009560</v>
       </c>
@@ -26913,8 +28526,11 @@
       <c r="K392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L392" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>898750</v>
       </c>
@@ -26951,8 +28567,11 @@
         <f>VLOOKUP(A393,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L393" s="4" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1229240</v>
       </c>
@@ -26989,8 +28608,11 @@
         <f>VLOOKUP(A394,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L394" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2162800</v>
       </c>
@@ -27026,8 +28648,11 @@
       <c r="K395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L395" s="4" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1957780</v>
       </c>
@@ -27063,8 +28688,11 @@
       <c r="K396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L396" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1680880</v>
       </c>
@@ -27101,8 +28729,11 @@
         <f>VLOOKUP(A397,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L397" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1414850</v>
       </c>
@@ -27139,8 +28770,11 @@
         <f>VLOOKUP(A398,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L398" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2140020</v>
       </c>
@@ -27177,8 +28811,11 @@
         <f>VLOOKUP(A399,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L399" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2849080</v>
       </c>
@@ -27215,8 +28852,11 @@
         <f>VLOOKUP(A400,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L400" s="4" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>824550</v>
       </c>
@@ -27253,8 +28893,11 @@
         <f>VLOOKUP(A401,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L401" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1874490</v>
       </c>
@@ -27291,8 +28934,11 @@
         <f>VLOOKUP(A402,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L402" s="4" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1342330</v>
       </c>
@@ -27328,8 +28974,11 @@
       <c r="K403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L403" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1281590</v>
       </c>
@@ -27366,8 +29015,11 @@
         <f>VLOOKUP(A404,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L404" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1432050</v>
       </c>
@@ -27404,8 +29056,11 @@
         <f>VLOOKUP(A405,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L405" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>820520</v>
       </c>
@@ -27442,8 +29097,11 @@
         <f>VLOOKUP(A406,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L406" s="4" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1843760</v>
       </c>
@@ -27480,8 +29138,11 @@
         <f>VLOOKUP(A407,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L407" s="4" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1177980</v>
       </c>
@@ -27518,8 +29179,11 @@
         <f>VLOOKUP(A408,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L408" s="4" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2060130</v>
       </c>
@@ -27556,8 +29220,11 @@
         <f>VLOOKUP(A409,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L409" s="4" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1382070</v>
       </c>
@@ -27594,8 +29261,11 @@
         <f>VLOOKUP(A410,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L410" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1963370</v>
       </c>
@@ -27631,8 +29301,11 @@
       <c r="K411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L411" s="4" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>491540</v>
       </c>
@@ -27668,8 +29341,11 @@
       <c r="K412">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L412" s="4" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1321440</v>
       </c>
@@ -27706,8 +29382,11 @@
         <f>VLOOKUP(A413,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L413" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1157390</v>
       </c>
@@ -27743,8 +29422,11 @@
       <c r="K414">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L414" s="4" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2144740</v>
       </c>
@@ -27781,8 +29463,11 @@
         <f>VLOOKUP(A415,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L415" s="4" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1426450</v>
       </c>
@@ -27818,8 +29503,11 @@
       <c r="K416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L416" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1000360</v>
       </c>
@@ -27855,8 +29543,11 @@
       <c r="K417">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L417" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1408610</v>
       </c>
@@ -27893,8 +29584,11 @@
         <f>VLOOKUP(A418,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L418" s="4" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2198150</v>
       </c>
@@ -27931,8 +29625,11 @@
         <f>VLOOKUP(A419,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L419" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1585220</v>
       </c>
@@ -27969,8 +29666,11 @@
         <f>VLOOKUP(A420,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L420" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1677770</v>
       </c>
@@ -28007,8 +29707,11 @@
         <f>VLOOKUP(A421,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L421" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1477590</v>
       </c>
@@ -28044,8 +29747,11 @@
       <c r="K422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L422" s="4" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1732180</v>
       </c>
@@ -28082,8 +29788,11 @@
         <f>VLOOKUP(A423,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L423" s="4" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1239020</v>
       </c>
@@ -28119,8 +29828,11 @@
       <c r="K424">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L424" s="4" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1434950</v>
       </c>
@@ -28157,8 +29869,11 @@
         <f>VLOOKUP(A425,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L425" s="4" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1114150</v>
       </c>
@@ -28195,8 +29910,11 @@
         <f>VLOOKUP(A426,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L426" s="4" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2638370</v>
       </c>
@@ -28233,8 +29951,11 @@
         <f>VLOOKUP(A427,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L427" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1097200</v>
       </c>
@@ -28271,8 +29992,11 @@
         <f>VLOOKUP(A428,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L428" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1562420</v>
       </c>
@@ -28308,8 +30032,11 @@
       <c r="K429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L429" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1205520</v>
       </c>
@@ -28346,8 +30073,11 @@
         <f>VLOOKUP(A430,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L430" s="4" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2096600</v>
       </c>
@@ -28384,8 +30114,11 @@
         <f>VLOOKUP(A431,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L431" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1110910</v>
       </c>
@@ -28422,8 +30155,11 @@
         <f>VLOOKUP(A432,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L432" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1944430</v>
       </c>
@@ -28460,8 +30196,11 @@
         <f>VLOOKUP(A433,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L433" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1343240</v>
       </c>
@@ -28498,8 +30237,11 @@
         <f>VLOOKUP(A434,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L434" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>973810</v>
       </c>
@@ -28536,8 +30278,11 @@
         <f>VLOOKUP(A435,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L435" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>915810</v>
       </c>
@@ -28573,8 +30318,11 @@
       <c r="K436">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L436" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1606180</v>
       </c>
@@ -28611,8 +30359,11 @@
         <f>VLOOKUP(A437,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L437" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1088710</v>
       </c>
@@ -28649,8 +30400,11 @@
         <f>VLOOKUP(A438,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L438" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2132850</v>
       </c>
@@ -28687,8 +30441,11 @@
         <f>VLOOKUP(A439,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L439" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2015270</v>
       </c>
@@ -28724,8 +30481,11 @@
       <c r="K440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L440" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1594940</v>
       </c>
@@ -28761,8 +30521,11 @@
       <c r="K441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L441" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2653790</v>
       </c>
@@ -28799,8 +30562,11 @@
         <f>VLOOKUP(A442,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L442" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1732190</v>
       </c>
@@ -28837,8 +30603,11 @@
         <f>VLOOKUP(A443,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L443" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1109570</v>
       </c>
@@ -28875,8 +30644,11 @@
         <f>VLOOKUP(A444,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L444" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1701520</v>
       </c>
@@ -28913,8 +30685,11 @@
         <f>VLOOKUP(A445,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L445" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1249970</v>
       </c>
@@ -28951,8 +30726,11 @@
         <f>VLOOKUP(A446,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L446" s="4" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>900040</v>
       </c>
@@ -28989,8 +30767,11 @@
         <f>VLOOKUP(A447,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L447" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1150760</v>
       </c>
@@ -29026,8 +30807,11 @@
       <c r="K448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L448" s="4" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1293160</v>
       </c>
@@ -29064,8 +30848,11 @@
         <f>VLOOKUP(A449,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L449" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2190290</v>
       </c>
@@ -29102,8 +30889,11 @@
         <f>VLOOKUP(A450,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L450" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2103140</v>
       </c>
@@ -29139,8 +30929,11 @@
       <c r="K451">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L451" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1578650</v>
       </c>
@@ -29177,8 +30970,11 @@
         <f>VLOOKUP(A452,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L452" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2786680</v>
       </c>
@@ -29215,8 +31011,11 @@
         <f>VLOOKUP(A453,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L453" s="4" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>674140</v>
       </c>
@@ -29253,8 +31052,11 @@
         <f>VLOOKUP(A454,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L454" s="4" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1618540</v>
       </c>
@@ -29290,8 +31092,11 @@
       <c r="K455">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L455" s="4" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1497440</v>
       </c>
@@ -29328,8 +31133,11 @@
         <f>VLOOKUP(A456,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L456" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1372810</v>
       </c>
@@ -29366,8 +31174,11 @@
         <f>VLOOKUP(A457,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L457" s="4" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>454120</v>
       </c>
@@ -29403,8 +31214,11 @@
       <c r="K458">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L458" s="4" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1138660</v>
       </c>
@@ -29441,8 +31255,11 @@
         <f>VLOOKUP(A459,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L459" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1388590</v>
       </c>
@@ -29479,8 +31296,11 @@
         <f>VLOOKUP(A460,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L460" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1179080</v>
       </c>
@@ -29517,8 +31337,11 @@
         <f>VLOOKUP(A461,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L461" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1220010</v>
       </c>
@@ -29554,8 +31377,11 @@
       <c r="K462">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L462" s="4" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2458530</v>
       </c>
@@ -29592,8 +31418,11 @@
         <f>VLOOKUP(A463,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L463" s="4" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1272160</v>
       </c>
@@ -29630,8 +31459,11 @@
         <f>VLOOKUP(A464,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L464" s="4" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1801110</v>
       </c>
@@ -29667,8 +31499,11 @@
       <c r="K465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L465" s="4" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2429860</v>
       </c>
@@ -29705,8 +31540,11 @@
         <f>VLOOKUP(A466,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L466" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1043810</v>
       </c>
@@ -29743,8 +31581,11 @@
         <f>VLOOKUP(A467,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L467" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1173770</v>
       </c>
@@ -29781,8 +31622,11 @@
         <f>VLOOKUP(A468,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L468" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1359980</v>
       </c>
@@ -29819,8 +31663,11 @@
         <f>VLOOKUP(A469,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L469" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1330470</v>
       </c>
@@ -29857,8 +31704,11 @@
         <f>VLOOKUP(A470,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L470" s="4" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2187290</v>
       </c>
@@ -29895,8 +31745,11 @@
         <f>VLOOKUP(A471,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L471" s="4" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1972440</v>
       </c>
@@ -29933,8 +31786,11 @@
         <f>VLOOKUP(A472,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L472" s="4" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>1328840</v>
       </c>
@@ -29971,8 +31827,11 @@
         <f>VLOOKUP(A473,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L473" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>927350</v>
       </c>
@@ -30009,8 +31868,11 @@
         <f>VLOOKUP(A474,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L474" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1504500</v>
       </c>
@@ -30047,8 +31909,11 @@
         <f>VLOOKUP(A475,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L475" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1328350</v>
       </c>
@@ -30084,8 +31949,11 @@
       <c r="K476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L476" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1206610</v>
       </c>
@@ -30122,8 +31990,11 @@
         <f>VLOOKUP(A477,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L477" s="4" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1473350</v>
       </c>
@@ -30160,8 +32031,11 @@
         <f>VLOOKUP(A478,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L478" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2666510</v>
       </c>
@@ -30198,8 +32072,11 @@
         <f>VLOOKUP(A479,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L479" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2095300</v>
       </c>
@@ -30236,8 +32113,11 @@
         <f>VLOOKUP(A480,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L480" s="4" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2194530</v>
       </c>
@@ -30274,8 +32154,11 @@
         <f>VLOOKUP(A481,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L481" s="4" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2068280</v>
       </c>
@@ -30311,8 +32194,11 @@
       <c r="K482">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L482" s="4" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1458100</v>
       </c>
@@ -30349,8 +32235,11 @@
         <f>VLOOKUP(A483,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L483" s="4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1745510</v>
       </c>
@@ -30386,8 +32275,11 @@
       <c r="K484">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L484" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1443200</v>
       </c>
@@ -30424,8 +32316,11 @@
         <f>VLOOKUP(A485,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L485" s="4" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2067920</v>
       </c>
@@ -30461,8 +32356,11 @@
       <c r="K486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L486" s="4" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2113850</v>
       </c>
@@ -30499,8 +32397,11 @@
         <f>VLOOKUP(A487,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L487" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1307580</v>
       </c>
@@ -30537,8 +32438,11 @@
         <f>VLOOKUP(A488,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L488" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1718870</v>
       </c>
@@ -30574,8 +32478,11 @@
       <c r="K489">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L489" s="4" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1866180</v>
       </c>
@@ -30612,8 +32519,11 @@
         <f>VLOOKUP(A490,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L490" s="4" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1684930</v>
       </c>
@@ -30650,8 +32560,11 @@
         <f>VLOOKUP(A491,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L491" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2276930</v>
       </c>
@@ -30688,8 +32601,11 @@
         <f>VLOOKUP(A492,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L492" s="4" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1316680</v>
       </c>
@@ -30726,8 +32642,11 @@
         <f>VLOOKUP(A493,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L493" s="4" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1846170</v>
       </c>
@@ -30764,8 +32683,11 @@
         <f>VLOOKUP(A494,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L494" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2291850</v>
       </c>
@@ -30802,8 +32724,11 @@
         <f>VLOOKUP(A495,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L495" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1161170</v>
       </c>
@@ -30840,8 +32765,11 @@
         <f>VLOOKUP(A496,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L496" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1461810</v>
       </c>
@@ -30878,8 +32806,11 @@
         <f>VLOOKUP(A497,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L497" s="4" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1250760</v>
       </c>
@@ -30916,8 +32847,11 @@
         <f>VLOOKUP(A498,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L498" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>978460</v>
       </c>
@@ -30954,8 +32888,11 @@
         <f>VLOOKUP(A499,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L499" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1615290</v>
       </c>
@@ -30992,8 +32929,11 @@
         <f>VLOOKUP(A500,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L500" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1816570</v>
       </c>
@@ -31030,8 +32970,11 @@
         <f>VLOOKUP(A501,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L501" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1634150</v>
       </c>
@@ -31068,8 +33011,11 @@
         <f>VLOOKUP(A502,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L502" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1764390</v>
       </c>
@@ -31106,8 +33052,11 @@
         <f>VLOOKUP(A503,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L503" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1506980</v>
       </c>
@@ -31144,8 +33093,11 @@
         <f>VLOOKUP(A504,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L504" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2901520</v>
       </c>
@@ -31182,8 +33134,11 @@
         <f>VLOOKUP(A505,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L505" s="4" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2378620</v>
       </c>
@@ -31220,8 +33175,11 @@
         <f>VLOOKUP(A506,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L506" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>615530</v>
       </c>
@@ -31258,8 +33216,11 @@
         <f>VLOOKUP(A507,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L507" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2707940</v>
       </c>
@@ -31295,8 +33256,11 @@
       <c r="K508">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L508" s="4" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1557990</v>
       </c>
@@ -31332,8 +33296,11 @@
       <c r="K509">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L509" s="4" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2878980</v>
       </c>
@@ -31370,8 +33337,11 @@
         <f>VLOOKUP(A510,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L510" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2515020</v>
       </c>
@@ -31408,9 +33378,12 @@
         <f>VLOOKUP(A511,[1]Sheet1!A:N,14,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L511" s="4" t="s">
+        <v>1695</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K511" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:L511" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -56695,8 +58668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
